--- a/Cleaned-Data/2015-Passouts/Sem-6_2015_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2015-Passouts/Sem-6_2015_Passout_cleaned.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prashant/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prashant/Downloads/Student-Placement-Guidance/Cleaned-Data/2015-Passouts/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="27680" windowHeight="15420"/>
+    <workbookView xWindow="1400" yWindow="1020" windowWidth="24000" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Sem-6_2015_Passout_cleaned" sheetId="1" r:id="rId1"/>
@@ -161,15 +161,6 @@
     <t>PC4202</t>
   </si>
   <si>
-    <t xml:space="preserve">ADMANE PRADEEP VIDNYANRAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AHIRE NAMRATA ASHOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AMIN RISHITA VIJAYKUMAR</t>
-  </si>
-  <si>
     <t>AMRE PRITAM ANILKUMAR</t>
   </si>
   <si>
@@ -185,36 +176,18 @@
     <t>BAGWE KARAN VINAY</t>
   </si>
   <si>
-    <t xml:space="preserve"> BANDIVADEKAR RUTALI DILIP</t>
-  </si>
-  <si>
     <t>BARBHAYA RISHI DIVYESH</t>
   </si>
   <si>
-    <t xml:space="preserve"> BELWALKAR MANALI CHANDRAKANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BHAGAT DOLLY DEEPAK</t>
-  </si>
-  <si>
     <t>BHALERAO DEVENDRA SURESH</t>
   </si>
   <si>
     <t>BORSE KIRAN HILAL</t>
   </si>
   <si>
-    <t xml:space="preserve"> CHAUHAN ANJALI RAJU</t>
-  </si>
-  <si>
     <t>CHAVAN GAURAV SHRIDHAR</t>
   </si>
   <si>
-    <t xml:space="preserve"> CHAVAN KOMAL DATTATRAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVAN RAVI BHIKAJI </t>
-  </si>
-  <si>
     <t>CHAVAN SHASHANK GAJANAN</t>
   </si>
   <si>
@@ -224,24 +197,15 @@
     <t>CHILE AKSHAY VISHWANATH</t>
   </si>
   <si>
-    <t xml:space="preserve"> CHILKA PRIYANKA RAJENDRA</t>
-  </si>
-  <si>
     <t>CHONKAR SHRIKAR RAVINDRA</t>
   </si>
   <si>
-    <t xml:space="preserve"> DALVI NILESHA NANDKISHOR</t>
-  </si>
-  <si>
     <t>DANDE AKASH NARAYAN</t>
   </si>
   <si>
     <t>DAVE RAJENDRA AJAY</t>
   </si>
   <si>
-    <t xml:space="preserve">DEORE SANKET GOVIND </t>
-  </si>
-  <si>
     <t>DESAI CHINMAY PRAKASH</t>
   </si>
   <si>
@@ -254,123 +218,42 @@
     <t>ERANGALE VINIT MANOJ</t>
   </si>
   <si>
-    <t>ERRAVONI MAHESH KUMAR BUCHAIAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GAJUL POOJA GOPAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GANDHI KAJOL VIJAY</t>
-  </si>
-  <si>
     <t>GAWADE MAHESH SHIVAJI</t>
   </si>
   <si>
-    <t xml:space="preserve"> GAWADE SHRADDHA SHRIKANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GAWAI SUPRIYA SUBHASH</t>
-  </si>
-  <si>
     <t>GOHIL VIRAL RAJESHBHAI</t>
   </si>
   <si>
     <t>GUPTA SHIVA AJAY</t>
   </si>
   <si>
-    <t xml:space="preserve"> GURABE MANISHA VISHNU</t>
-  </si>
-  <si>
     <t>GURAV ABHIJIT SHRIPAT</t>
   </si>
   <si>
-    <t xml:space="preserve"> GURAV KAMINEE PRAKASH</t>
-  </si>
-  <si>
     <t>HEGDE PARIKSHIT KRISHNA</t>
   </si>
   <si>
-    <t xml:space="preserve"> JADHAV SNEHA AMARSINGH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAIN SHARAD RAMESHKUMAR </t>
-  </si>
-  <si>
     <t>JETHAVA VIKRANT ASHOK BHAI</t>
   </si>
   <si>
-    <t xml:space="preserve"> JOSHI DIVYA ASHOK</t>
-  </si>
-  <si>
     <t>KADDI ASHUTOSH RAVINDRA</t>
   </si>
   <si>
-    <t xml:space="preserve">KADIWALA REHAN KARIM </t>
-  </si>
-  <si>
     <t>KAMBLE ROHAN SUNIL</t>
   </si>
   <si>
-    <t xml:space="preserve">KAMDAR  JINESH KUMAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KELUSKAR PRAVIN PURUSHOTTAM  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KESARKAR ANKITA DILIP</t>
-  </si>
-  <si>
     <t>KEYAL ATULKUMAR SAJJANKUMAR</t>
   </si>
   <si>
-    <t xml:space="preserve"> KHAIRNAR VAISHALI VIJAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KHANDARE ASHWINI DNYANDEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KHATRI CHINTAN BIPIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KHOT  DEEPALI GANPATI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KODAM MANIKIRAN MADHUSUDHAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KOLI NEHA NANDU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KUBAL PRIYANKA KAMALAKAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KUBAL SARIKA KAMALAKAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KUCHEKAR KARISHMA APPASAHEB</t>
-  </si>
-  <si>
     <t>KULKARNI NIKHIL NAGESH</t>
   </si>
   <si>
     <t>KUTTY ROHIT KRISHNAN</t>
   </si>
   <si>
-    <t xml:space="preserve"> LANDGE SNEHAL PRAKASH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADHWA TANUJ RADHEY SHYAM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANIAR KARAN BHARATBHAI </t>
-  </si>
-  <si>
     <t>MANJARE SAGAR RAMDAS</t>
   </si>
   <si>
-    <t xml:space="preserve"> MHATRE DEVIKA RAVINDRA</t>
-  </si>
-  <si>
     <t>MORE SAURABH SUDHIR</t>
   </si>
   <si>
@@ -380,15 +263,9 @@
     <t>NAGWEKAR DEVEN SUHAS</t>
   </si>
   <si>
-    <t xml:space="preserve"> NAIK MADHURA MILIND</t>
-  </si>
-  <si>
     <t>NEMAN PRATEEK DASHRATH</t>
   </si>
   <si>
-    <t xml:space="preserve">OZA ADITYA SUNILKUMAR </t>
-  </si>
-  <si>
     <t>PADSALA CHIRAG GOKUL</t>
   </si>
   <si>
@@ -398,27 +275,12 @@
     <t>PALAV ROHIT DHANANJAY</t>
   </si>
   <si>
-    <t xml:space="preserve"> PANCHAL KOMAL NITIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PANDEY KARISHMA AJEETKUMAR</t>
-  </si>
-  <si>
     <t>PANDEY SANTOSHKUMAR RAJKUMAR</t>
   </si>
   <si>
-    <t xml:space="preserve">PARANDE MANDAR MANGESH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARKAR SIDDHANT RAJIV </t>
-  </si>
-  <si>
     <t>PARMAR ANKIT RAMNIKLAL</t>
   </si>
   <si>
-    <t xml:space="preserve">PATEL JAY BIPIN </t>
-  </si>
-  <si>
     <t>PATHARE ROHIT SANJAY</t>
   </si>
   <si>
@@ -431,75 +293,27 @@
     <t>PATIL AKSHAY PRADEEP</t>
   </si>
   <si>
-    <t xml:space="preserve">PATIL GAURAV BHAURAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PATIL MRUNAL SHASHIKANT</t>
-  </si>
-  <si>
     <t>PATIL SANKET SUNIL</t>
   </si>
   <si>
-    <t xml:space="preserve"> PATIL SNEHAL VASANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PAWAR SONALI BHIMSING</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PENDHARI DIPALI SAKHARAM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PIMPLE SAYALI PRABHAKAR</t>
-  </si>
-  <si>
     <t>POOJARI DHANRAJ MUTHAYYA</t>
   </si>
   <si>
     <t>PRAJAPATI PRAMOD RAMJIT</t>
   </si>
   <si>
-    <t xml:space="preserve"> PURI NAMITA RAMDAS</t>
-  </si>
-  <si>
     <t>QAMAR JUNAID MOHD</t>
   </si>
   <si>
-    <t xml:space="preserve"> RANE YUGANDHARA CHANDRAMOHAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RAUT JUHI DILIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RAUT NEHA MOHAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAKHALE NIMESH HEMANT  </t>
-  </si>
-  <si>
     <t>SANKPAL KIRAN PRAKASH</t>
   </si>
   <si>
-    <t xml:space="preserve"> SAPLE NIKITA DILIP</t>
-  </si>
-  <si>
-    <t>SATARDEKAR SIDDHESH  NANDKUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SAWANT  RIDHIMA  AJAY </t>
-  </si>
-  <si>
     <t>SAWANT ROHIT RAMCHANDRA</t>
   </si>
   <si>
     <t>SAWANT SHREYAS SUBHASH</t>
   </si>
   <si>
-    <t xml:space="preserve">SETH SAURAV </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SHAH DIVYA MANGESH </t>
-  </si>
-  <si>
     <t>SHAH FIYANSH DINESH</t>
   </si>
   <si>
@@ -512,27 +326,15 @@
     <t>SHAH KETUK PANKAJKUMAR</t>
   </si>
   <si>
-    <t xml:space="preserve"> SHAH KOMAL PARTH</t>
-  </si>
-  <si>
     <t>SHAH PARAS PANKAJ</t>
   </si>
   <si>
     <t>SHARMA PRADEEP RAMAJEET</t>
   </si>
   <si>
-    <t xml:space="preserve"> SHELKE DHANSHREE SUBHASH </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SHETTY CHAITRA BALAKRISHNA</t>
-  </si>
-  <si>
     <t>SHETTY RISHI CHANDRASHEKAR</t>
   </si>
   <si>
-    <t xml:space="preserve"> SHEWALE PALLAVI KALIDAS</t>
-  </si>
-  <si>
     <t>SHINDE ANIKET ANANT</t>
   </si>
   <si>
@@ -542,45 +344,21 @@
     <t>SHUKLA AKASHKUMAR LALITKUMAR</t>
   </si>
   <si>
-    <t xml:space="preserve">SHUKLA MANOJ SHOBNATH </t>
-  </si>
-  <si>
     <t>SINGH SATISH SHARDA</t>
   </si>
   <si>
-    <t>SINGH VIKRAM  RAVINDRA</t>
-  </si>
-  <si>
     <t>SINKAR VINIT PRADIP</t>
   </si>
   <si>
-    <t xml:space="preserve"> SOMAIYA JAINIM DILIP</t>
-  </si>
-  <si>
     <t>SONI RAINIK OMPRAKASH</t>
   </si>
   <si>
     <t>SRIKANTH RAVEE</t>
   </si>
   <si>
-    <t>SUMAN  SIDDAHARTH SURESH</t>
-  </si>
-  <si>
     <t>SURVE NEHA VILAS</t>
   </si>
   <si>
-    <t xml:space="preserve"> SURYAWANSHI PRIYANKA MADHUKAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TANDEL LINA LAXMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THAPLIYAL AJAY SHIVSHARAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UBALE SANCHI SANDEEP</t>
-  </si>
-  <si>
     <t>UPADHYAY PRASHANT VIJAY</t>
   </si>
   <si>
@@ -590,12 +368,6 @@
     <t>VYAS SAGAR MAHENDRA</t>
   </si>
   <si>
-    <t xml:space="preserve"> WALINJKAR KRITIKA BHUSHAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ZEPLE PRIYANKA KESHAV</t>
-  </si>
-  <si>
     <t>GALANDE BHUSHAN RAMESH</t>
   </si>
   <si>
@@ -605,27 +377,15 @@
     <t>WANI TEJAS VILAS</t>
   </si>
   <si>
-    <t xml:space="preserve"> SHAH ZALAK NIPUL</t>
-  </si>
-  <si>
     <t>SALVI SANDESH DILIP</t>
   </si>
   <si>
-    <t xml:space="preserve"> BHOITE KISHORI PRABHAR</t>
-  </si>
-  <si>
     <t>BAJETHA GAURAV SINGH GOVIND</t>
   </si>
   <si>
-    <t xml:space="preserve"> SHINDE PRATIKSHA DNYANESHWAR</t>
-  </si>
-  <si>
     <t>AMBRE ABHISHEK AURN</t>
   </si>
   <si>
-    <t xml:space="preserve"> BHOLE NILIMA SURESH</t>
-  </si>
-  <si>
     <t>CHOUDHARY SHANKAR MAFATLAL</t>
   </si>
   <si>
@@ -729,13 +489,253 @@
   </si>
   <si>
     <t xml:space="preserve">One Thousand Sixty Seven </t>
+  </si>
+  <si>
+    <t>ERRAVONI MAHESH BUCHAIAH</t>
+  </si>
+  <si>
+    <t>ADMANE PRADEEP VIDNYANRAO</t>
+  </si>
+  <si>
+    <t>AHIRE NAMRATA ASHOK</t>
+  </si>
+  <si>
+    <t>AMIN RISHITA VIJAYKUMAR</t>
+  </si>
+  <si>
+    <t>BANDIVADEKAR RUTALI DILIP</t>
+  </si>
+  <si>
+    <t>BELWALKAR MANALI CHANDRAKANT</t>
+  </si>
+  <si>
+    <t>BHAGAT DOLLY DEEPAK</t>
+  </si>
+  <si>
+    <t>CHAUHAN ANJALI RAJU</t>
+  </si>
+  <si>
+    <t>CHAVAN KOMAL DATTATRAY</t>
+  </si>
+  <si>
+    <t>CHAVAN RAVI BHIKAJI</t>
+  </si>
+  <si>
+    <t>CHILKA PRIYANKA RAJENDRA</t>
+  </si>
+  <si>
+    <t>DALVI NILESHA NANDKISHOR</t>
+  </si>
+  <si>
+    <t>DEORE SANKET GOVIND</t>
+  </si>
+  <si>
+    <t>GAJUL POOJA GOPAL</t>
+  </si>
+  <si>
+    <t>GANDHI KAJOL VIJAY</t>
+  </si>
+  <si>
+    <t>GAWADE SHRADDHA SHRIKANT</t>
+  </si>
+  <si>
+    <t>GAWAI SUPRIYA SUBHASH</t>
+  </si>
+  <si>
+    <t>GURABE MANISHA VISHNU</t>
+  </si>
+  <si>
+    <t>GURAV KAMINEE PRAKASH</t>
+  </si>
+  <si>
+    <t>JADHAV SNEHA AMARSINGH</t>
+  </si>
+  <si>
+    <t>JAIN SHARAD RAMESHKUMAR</t>
+  </si>
+  <si>
+    <t>JOSHI DIVYA ASHOK</t>
+  </si>
+  <si>
+    <t>KADIWALA REHAN KARIM</t>
+  </si>
+  <si>
+    <t>KAMDAR JINESH KUMAR</t>
+  </si>
+  <si>
+    <t>KELUSKAR PRAVIN PURUSHOTTAM</t>
+  </si>
+  <si>
+    <t>KESARKAR ANKITA DILIP</t>
+  </si>
+  <si>
+    <t>KHAIRNAR VAISHALI VIJAY</t>
+  </si>
+  <si>
+    <t>KHANDARE ASHWINI DNYANDEO</t>
+  </si>
+  <si>
+    <t>KHATRI CHINTAN BIPIN</t>
+  </si>
+  <si>
+    <t>KHOT DEEPALI GANPATI</t>
+  </si>
+  <si>
+    <t>KODAM MANIKIRAN MADHUSUDHAN</t>
+  </si>
+  <si>
+    <t>KOLI NEHA NANDU</t>
+  </si>
+  <si>
+    <t>KUBAL PRIYANKA KAMALAKAR</t>
+  </si>
+  <si>
+    <t>KUBAL SARIKA KAMALAKAR</t>
+  </si>
+  <si>
+    <t>KUCHEKAR KARISHMA APPASAHEB</t>
+  </si>
+  <si>
+    <t>LANDGE SNEHAL PRAKASH</t>
+  </si>
+  <si>
+    <t>MADHWA TANUJ RADHEY SHYAM</t>
+  </si>
+  <si>
+    <t>MANIAR KARAN BHARATBHAI</t>
+  </si>
+  <si>
+    <t>MHATRE DEVIKA RAVINDRA</t>
+  </si>
+  <si>
+    <t>NAIK MADHURA MILIND</t>
+  </si>
+  <si>
+    <t>OZA ADITYA SUNILKUMAR</t>
+  </si>
+  <si>
+    <t>PANCHAL KOMAL NITIN</t>
+  </si>
+  <si>
+    <t>PANDEY KARISHMA AJEETKUMAR</t>
+  </si>
+  <si>
+    <t>PARANDE MANDAR MANGESH</t>
+  </si>
+  <si>
+    <t>PARKAR SIDDHANT RAJIV</t>
+  </si>
+  <si>
+    <t>PATEL JAY BIPIN</t>
+  </si>
+  <si>
+    <t>PATIL GAURAV BHAURAO</t>
+  </si>
+  <si>
+    <t>PATIL MRUNAL SHASHIKANT</t>
+  </si>
+  <si>
+    <t>PATIL SNEHAL VASANT</t>
+  </si>
+  <si>
+    <t>PAWAR SONALI BHIMSING</t>
+  </si>
+  <si>
+    <t>PENDHARI DIPALI SAKHARAM</t>
+  </si>
+  <si>
+    <t>PIMPLE SAYALI PRABHAKAR</t>
+  </si>
+  <si>
+    <t>PURI NAMITA RAMDAS</t>
+  </si>
+  <si>
+    <t>RANE YUGANDHARA CHANDRAMOHAN</t>
+  </si>
+  <si>
+    <t>RAUT JUHI DILIP</t>
+  </si>
+  <si>
+    <t>RAUT NEHA MOHAN</t>
+  </si>
+  <si>
+    <t>SAKHALE NIMESH HEMANT</t>
+  </si>
+  <si>
+    <t>SAPLE NIKITA DILIP</t>
+  </si>
+  <si>
+    <t>SATARDEKAR SIDDHESH NANDKUMAR</t>
+  </si>
+  <si>
+    <t>SAWANT RIDHIMA AJAY</t>
+  </si>
+  <si>
+    <t>SETH SAURAV</t>
+  </si>
+  <si>
+    <t>SHAH DIVYA MANGESH</t>
+  </si>
+  <si>
+    <t>SHAH KOMAL PARTH</t>
+  </si>
+  <si>
+    <t>SHELKE DHANSHREE SUBHASH</t>
+  </si>
+  <si>
+    <t>SHETTY CHAITRA BALAKRISHNA</t>
+  </si>
+  <si>
+    <t>SHEWALE PALLAVI KALIDAS</t>
+  </si>
+  <si>
+    <t>SHUKLA MANOJ SHOBNATH</t>
+  </si>
+  <si>
+    <t>SINGH VIKRAM RAVINDRA</t>
+  </si>
+  <si>
+    <t>SOMAIYA JAINIM DILIP</t>
+  </si>
+  <si>
+    <t>SUMAN SIDDAHARTH SURESH</t>
+  </si>
+  <si>
+    <t>SURYAWANSHI PRIYANKA MADHUKAR</t>
+  </si>
+  <si>
+    <t>TANDEL LINA LAXMAN</t>
+  </si>
+  <si>
+    <t>THAPLIYAL AJAY SHIVSHARAN</t>
+  </si>
+  <si>
+    <t>UBALE SANCHI SANDEEP</t>
+  </si>
+  <si>
+    <t>WALINJKAR KRITIKA BHUSHAN</t>
+  </si>
+  <si>
+    <t>ZEPLE PRIYANKA KESHAV</t>
+  </si>
+  <si>
+    <t>SHAH ZALAK NIPUL</t>
+  </si>
+  <si>
+    <t>BHOITE KISHORI PRABHAR</t>
+  </si>
+  <si>
+    <t>SHINDE PRATIKSHA DNYANESHWAR</t>
+  </si>
+  <si>
+    <t>BHOLE NILIMA SURESH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +747,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -784,8 +800,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -793,7 +819,17 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1096,7 +1132,7 @@
   <dimension ref="A1:AQ162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1282,7 +1318,7 @@
         <v>146201</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="D2">
         <v>41</v>
@@ -1345,13 +1381,13 @@
         <v>976</v>
       </c>
       <c r="AO2" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP2" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="AQ2" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
@@ -1362,7 +1398,7 @@
         <v>146202</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="D3">
         <v>67</v>
@@ -1425,13 +1461,13 @@
         <v>1148</v>
       </c>
       <c r="AO3" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP3" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AQ3" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
@@ -1442,7 +1478,7 @@
         <v>146203</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="D4">
         <v>57</v>
@@ -1505,13 +1541,13 @@
         <v>1133</v>
       </c>
       <c r="AO4" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP4" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AQ4" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
@@ -1522,7 +1558,7 @@
         <v>146204</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>59</v>
@@ -1585,13 +1621,13 @@
         <v>1172</v>
       </c>
       <c r="AO5" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP5" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AQ5" t="s">
-        <v>220</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
@@ -1602,7 +1638,7 @@
         <v>146205</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>43</v>
@@ -1665,13 +1701,13 @@
         <v>1068</v>
       </c>
       <c r="AO6" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP6" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="AQ6" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
@@ -1682,7 +1718,7 @@
         <v>146206</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>67</v>
@@ -1745,13 +1781,13 @@
         <v>1171</v>
       </c>
       <c r="AO7" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP7" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AQ7" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
@@ -1762,7 +1798,7 @@
         <v>146207</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>51</v>
@@ -1825,13 +1861,13 @@
         <v>977</v>
       </c>
       <c r="AO8" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP8" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="AQ8" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
@@ -1842,7 +1878,7 @@
         <v>146208</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>73</v>
@@ -1905,13 +1941,13 @@
         <v>1248</v>
       </c>
       <c r="AO9" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP9" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AQ9" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
@@ -1922,7 +1958,7 @@
         <v>146209</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="D10">
         <v>70</v>
@@ -1985,13 +2021,13 @@
         <v>1277</v>
       </c>
       <c r="AO10" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP10" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AQ10" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
@@ -2002,7 +2038,7 @@
         <v>146210</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>57</v>
@@ -2065,13 +2101,13 @@
         <v>1158</v>
       </c>
       <c r="AO11" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP11" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AQ11" t="s">
-        <v>226</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
@@ -2082,7 +2118,7 @@
         <v>146211</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="D12">
         <v>46</v>
@@ -2145,13 +2181,13 @@
         <v>1088</v>
       </c>
       <c r="AO12" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP12" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AQ12" t="s">
-        <v>227</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
@@ -2162,7 +2198,7 @@
         <v>146212</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="D13">
         <v>40</v>
@@ -2225,13 +2261,13 @@
         <v>1058</v>
       </c>
       <c r="AO13" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP13" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AQ13" t="s">
-        <v>228</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
@@ -2242,7 +2278,7 @@
         <v>146213</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>61</v>
@@ -2305,13 +2341,13 @@
         <v>1123</v>
       </c>
       <c r="AO14" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP14" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="AQ14" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
@@ -2322,7 +2358,7 @@
         <v>146214</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D15">
         <v>51</v>
@@ -2385,13 +2421,13 @@
         <v>1024</v>
       </c>
       <c r="AO15" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP15" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AQ15" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
@@ -2402,7 +2438,7 @@
         <v>146215</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="D16">
         <v>49</v>
@@ -2465,13 +2501,13 @@
         <v>1035</v>
       </c>
       <c r="AO16" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP16" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AQ16" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
@@ -2482,7 +2518,7 @@
         <v>146216</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D17">
         <v>58</v>
@@ -2545,13 +2581,13 @@
         <v>1131</v>
       </c>
       <c r="AO17" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP17" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AQ17" t="s">
-        <v>232</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
@@ -2562,7 +2598,7 @@
         <v>146217</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="D18">
         <v>50</v>
@@ -2625,13 +2661,13 @@
         <v>1067</v>
       </c>
       <c r="AO18" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP18" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="AQ18" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
@@ -2642,7 +2678,7 @@
         <v>146218</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="D19">
         <v>41</v>
@@ -2705,10 +2741,10 @@
         <v>940</v>
       </c>
       <c r="AO19" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP19" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
@@ -2719,7 +2755,7 @@
         <v>146219</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D20">
         <v>55</v>
@@ -2782,10 +2818,10 @@
         <v>1176</v>
       </c>
       <c r="AO20" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP20" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
@@ -2796,7 +2832,7 @@
         <v>146220</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D21">
         <v>46</v>
@@ -2859,10 +2895,10 @@
         <v>1042</v>
       </c>
       <c r="AO21" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP21" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
@@ -2873,7 +2909,7 @@
         <v>146221</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>63</v>
@@ -2936,10 +2972,10 @@
         <v>1118</v>
       </c>
       <c r="AO22" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP22" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
@@ -2950,7 +2986,7 @@
         <v>146222</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="D23">
         <v>40</v>
@@ -3013,10 +3049,10 @@
         <v>1077</v>
       </c>
       <c r="AO23" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP23" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
@@ -3027,7 +3063,7 @@
         <v>146223</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <v>46</v>
@@ -3090,10 +3126,10 @@
         <v>1087</v>
       </c>
       <c r="AO24" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP24" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
@@ -3104,7 +3140,7 @@
         <v>146224</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="D25">
         <v>47</v>
@@ -3167,10 +3203,10 @@
         <v>1093</v>
       </c>
       <c r="AO25" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP25" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
@@ -3181,7 +3217,7 @@
         <v>146225</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D26">
         <v>65</v>
@@ -3244,10 +3280,10 @@
         <v>1209</v>
       </c>
       <c r="AO26" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP26" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
@@ -3258,7 +3294,7 @@
         <v>146226</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D27">
         <v>60</v>
@@ -3321,10 +3357,10 @@
         <v>1206</v>
       </c>
       <c r="AO27" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP27" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.2">
@@ -3335,7 +3371,7 @@
         <v>146227</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D28">
         <v>41</v>
@@ -3398,10 +3434,10 @@
         <v>960</v>
       </c>
       <c r="AO28" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP28" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
@@ -3412,7 +3448,7 @@
         <v>146228</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D29">
         <v>49</v>
@@ -3475,10 +3511,10 @@
         <v>509</v>
       </c>
       <c r="AO29" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP29" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
@@ -3489,7 +3525,7 @@
         <v>146229</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>54</v>
@@ -3552,10 +3588,10 @@
         <v>1090</v>
       </c>
       <c r="AO30" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP30" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
@@ -3566,7 +3602,7 @@
         <v>146230</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <v>67</v>
@@ -3629,10 +3665,10 @@
         <v>1160</v>
       </c>
       <c r="AO31" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP31" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
@@ -3643,7 +3679,7 @@
         <v>146231</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D32">
         <v>50</v>
@@ -3706,10 +3742,10 @@
         <v>1104</v>
       </c>
       <c r="AO32" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP32" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.2">
@@ -3720,7 +3756,7 @@
         <v>146232</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="D33">
         <v>59</v>
@@ -3783,10 +3819,10 @@
         <v>1119</v>
       </c>
       <c r="AO33" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP33" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.2">
@@ -3797,7 +3833,7 @@
         <v>146233</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="D34">
         <v>58</v>
@@ -3860,10 +3896,10 @@
         <v>1160</v>
       </c>
       <c r="AO34" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP34" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.2">
@@ -3874,7 +3910,7 @@
         <v>146234</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="D35">
         <v>58</v>
@@ -3937,10 +3973,10 @@
         <v>1200</v>
       </c>
       <c r="AO35" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP35" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.2">
@@ -3951,7 +3987,7 @@
         <v>146235</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D36">
         <v>62</v>
@@ -4014,10 +4050,10 @@
         <v>1174</v>
       </c>
       <c r="AO36" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP36" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.2">
@@ -4028,7 +4064,7 @@
         <v>146236</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="D37">
         <v>68</v>
@@ -4091,10 +4127,10 @@
         <v>1281</v>
       </c>
       <c r="AO37" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP37" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.2">
@@ -4105,7 +4141,7 @@
         <v>146237</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="D38">
         <v>40</v>
@@ -4168,10 +4204,10 @@
         <v>1191</v>
       </c>
       <c r="AO38" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP38" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.2">
@@ -4182,7 +4218,7 @@
         <v>146238</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D39">
         <v>69</v>
@@ -4245,10 +4281,10 @@
         <v>1279</v>
       </c>
       <c r="AO39" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP39" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.2">
@@ -4259,7 +4295,7 @@
         <v>146239</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D40">
         <v>60</v>
@@ -4322,10 +4358,10 @@
         <v>1289</v>
       </c>
       <c r="AO40" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP40" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.2">
@@ -4336,7 +4372,7 @@
         <v>146240</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="D41">
         <v>59</v>
@@ -4399,10 +4435,10 @@
         <v>1230</v>
       </c>
       <c r="AO41" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP41" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.2">
@@ -4413,7 +4449,7 @@
         <v>146241</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D42">
         <v>56</v>
@@ -4476,10 +4512,10 @@
         <v>1106</v>
       </c>
       <c r="AO42" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP42" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.2">
@@ -4490,7 +4526,7 @@
         <v>146242</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="D43">
         <v>68</v>
@@ -4553,10 +4589,10 @@
         <v>1216</v>
       </c>
       <c r="AO43" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP43" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.2">
@@ -4567,7 +4603,7 @@
         <v>146243</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D44">
         <v>56</v>
@@ -4630,10 +4666,10 @@
         <v>1176</v>
       </c>
       <c r="AO44" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP44" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.2">
@@ -4644,7 +4680,7 @@
         <v>146244</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="D45">
         <v>64</v>
@@ -4707,10 +4743,10 @@
         <v>1189</v>
       </c>
       <c r="AO45" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP45" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.2">
@@ -4721,7 +4757,7 @@
         <v>146245</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="D46">
         <v>54</v>
@@ -4784,10 +4820,10 @@
         <v>1094</v>
       </c>
       <c r="AO46" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP46" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.2">
@@ -4798,109 +4834,109 @@
         <v>146246</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D47">
         <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="F47">
         <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="H47">
         <v>43</v>
       </c>
       <c r="I47" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="J47">
         <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="L47">
         <v>20</v>
       </c>
       <c r="M47" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="N47">
         <v>21</v>
       </c>
       <c r="O47" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="P47">
         <v>40</v>
       </c>
       <c r="Q47" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="R47">
         <v>19</v>
       </c>
       <c r="S47" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="T47">
         <v>43</v>
       </c>
       <c r="U47" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="V47">
         <v>19</v>
       </c>
       <c r="W47" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="X47">
         <v>18</v>
       </c>
       <c r="Y47" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="Z47">
         <v>17</v>
       </c>
       <c r="AA47" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AB47">
         <v>40</v>
       </c>
       <c r="AC47" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AD47">
         <v>20</v>
       </c>
       <c r="AE47" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AF47">
         <v>19</v>
       </c>
       <c r="AG47" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AH47">
         <v>20</v>
       </c>
       <c r="AI47" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AJ47">
         <v>20</v>
       </c>
       <c r="AK47" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AL47">
         <v>442</v>
@@ -4912,10 +4948,10 @@
         <v>938</v>
       </c>
       <c r="AO47" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="AP47" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.2">
@@ -4926,7 +4962,7 @@
         <v>146247</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -4989,10 +5025,10 @@
         <v>1144</v>
       </c>
       <c r="AO48" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP48" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.2">
@@ -5003,7 +5039,7 @@
         <v>146248</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D49">
         <v>52</v>
@@ -5066,10 +5102,10 @@
         <v>1150</v>
       </c>
       <c r="AO49" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP49" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.2">
@@ -5080,7 +5116,7 @@
         <v>146249</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="D50">
         <v>48</v>
@@ -5143,10 +5179,10 @@
         <v>1013</v>
       </c>
       <c r="AO50" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP50" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.2">
@@ -5157,7 +5193,7 @@
         <v>146250</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D51">
         <v>63</v>
@@ -5220,10 +5256,10 @@
         <v>1128</v>
       </c>
       <c r="AO51" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP51" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.2">
@@ -5234,7 +5270,7 @@
         <v>146251</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="D52">
         <v>56</v>
@@ -5297,10 +5333,10 @@
         <v>1208</v>
       </c>
       <c r="AO52" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP52" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.2">
@@ -5311,7 +5347,7 @@
         <v>146252</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="D53">
         <v>46</v>
@@ -5374,10 +5410,10 @@
         <v>506</v>
       </c>
       <c r="AO53" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP53" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.2">
@@ -5388,7 +5424,7 @@
         <v>146253</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="D54">
         <v>40</v>
@@ -5451,10 +5487,10 @@
         <v>1100</v>
       </c>
       <c r="AO54" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP54" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.2">
@@ -5465,7 +5501,7 @@
         <v>146254</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D55">
         <v>75</v>
@@ -5528,10 +5564,10 @@
         <v>1287</v>
       </c>
       <c r="AO55" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP55" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.2">
@@ -5542,7 +5578,7 @@
         <v>146255</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="D56">
         <v>46</v>
@@ -5605,10 +5641,10 @@
         <v>1094</v>
       </c>
       <c r="AO56" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP56" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.2">
@@ -5619,7 +5655,7 @@
         <v>146256</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="D57">
         <v>62</v>
@@ -5682,10 +5718,10 @@
         <v>1223</v>
       </c>
       <c r="AO57" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP57" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.2">
@@ -5696,7 +5732,7 @@
         <v>146257</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -5759,10 +5795,10 @@
         <v>1186</v>
       </c>
       <c r="AO58" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP58" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.2">
@@ -5773,7 +5809,7 @@
         <v>146258</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="D59">
         <v>66</v>
@@ -5836,10 +5872,10 @@
         <v>1203</v>
       </c>
       <c r="AO59" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP59" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.2">
@@ -5850,7 +5886,7 @@
         <v>146259</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="D60">
         <v>43</v>
@@ -5913,10 +5949,10 @@
         <v>1121</v>
       </c>
       <c r="AO60" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP60" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.2">
@@ -5927,7 +5963,7 @@
         <v>146260</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="D61">
         <v>57</v>
@@ -5990,10 +6026,10 @@
         <v>1196</v>
       </c>
       <c r="AO61" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP61" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.2">
@@ -6004,7 +6040,7 @@
         <v>146261</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -6067,10 +6103,10 @@
         <v>1156</v>
       </c>
       <c r="AO62" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP62" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.2">
@@ -6081,7 +6117,7 @@
         <v>146262</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="D63">
         <v>61</v>
@@ -6144,10 +6180,10 @@
         <v>1147</v>
       </c>
       <c r="AO63" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP63" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.2">
@@ -6158,7 +6194,7 @@
         <v>146263</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="D64">
         <v>50</v>
@@ -6221,10 +6257,10 @@
         <v>1074</v>
       </c>
       <c r="AO64" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP64" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.2">
@@ -6235,7 +6271,7 @@
         <v>146264</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D65">
         <v>65</v>
@@ -6298,10 +6334,10 @@
         <v>1182</v>
       </c>
       <c r="AO65" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP65" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:42" x14ac:dyDescent="0.2">
@@ -6312,7 +6348,7 @@
         <v>146265</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D66">
         <v>43</v>
@@ -6375,10 +6411,10 @@
         <v>1036</v>
       </c>
       <c r="AO66" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP66" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.2">
@@ -6389,7 +6425,7 @@
         <v>146266</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="D67">
         <v>60</v>
@@ -6452,10 +6488,10 @@
         <v>1117</v>
       </c>
       <c r="AO67" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP67" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.2">
@@ -6466,109 +6502,109 @@
         <v>146267</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="D68">
         <v>28</v>
       </c>
       <c r="E68" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="F68">
         <v>23</v>
       </c>
       <c r="G68" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="H68">
         <v>39</v>
       </c>
       <c r="I68" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="J68">
         <v>40</v>
       </c>
       <c r="K68" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="L68">
         <v>23</v>
       </c>
       <c r="M68" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="N68">
         <v>23</v>
       </c>
       <c r="O68" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="P68">
         <v>54</v>
       </c>
       <c r="Q68" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="R68">
         <v>23</v>
       </c>
       <c r="S68" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="T68">
         <v>39</v>
       </c>
       <c r="U68" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="V68">
         <v>27</v>
       </c>
       <c r="W68" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="X68">
         <v>16</v>
       </c>
       <c r="Y68" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="Z68">
         <v>21</v>
       </c>
       <c r="AA68" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AB68">
         <v>41</v>
       </c>
       <c r="AC68" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AD68">
         <v>18</v>
       </c>
       <c r="AE68" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AF68">
         <v>18</v>
       </c>
       <c r="AG68" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AH68">
         <v>18</v>
       </c>
       <c r="AI68" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AJ68">
         <v>19</v>
       </c>
       <c r="AK68" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AL68">
         <v>470</v>
@@ -6580,10 +6616,10 @@
         <v>470</v>
       </c>
       <c r="AO68" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="AP68" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.2">
@@ -6594,7 +6630,7 @@
         <v>146268</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="D69">
         <v>58</v>
@@ -6657,10 +6693,10 @@
         <v>1170</v>
       </c>
       <c r="AO69" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP69" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.2">
@@ -6671,7 +6707,7 @@
         <v>146269</v>
       </c>
       <c r="C70" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="D70">
         <v>60</v>
@@ -6734,10 +6770,10 @@
         <v>1196</v>
       </c>
       <c r="AO70" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP70" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.2">
@@ -6748,7 +6784,7 @@
         <v>146270</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D71">
         <v>63</v>
@@ -6811,10 +6847,10 @@
         <v>1127</v>
       </c>
       <c r="AO71" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP71" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:42" x14ac:dyDescent="0.2">
@@ -6825,7 +6861,7 @@
         <v>146271</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="D72">
         <v>45</v>
@@ -6888,10 +6924,10 @@
         <v>1085</v>
       </c>
       <c r="AO72" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP72" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.2">
@@ -6902,7 +6938,7 @@
         <v>146272</v>
       </c>
       <c r="C73" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="D73">
         <v>45</v>
@@ -6965,10 +7001,10 @@
         <v>1057</v>
       </c>
       <c r="AO73" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP73" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.2">
@@ -6979,7 +7015,7 @@
         <v>146273</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="D74">
         <v>42</v>
@@ -7042,10 +7078,10 @@
         <v>488</v>
       </c>
       <c r="AO74" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP74" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.2">
@@ -7056,7 +7092,7 @@
         <v>146274</v>
       </c>
       <c r="C75" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="D75">
         <v>42</v>
@@ -7119,10 +7155,10 @@
         <v>1089</v>
       </c>
       <c r="AO75" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP75" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.2">
@@ -7133,7 +7169,7 @@
         <v>146275</v>
       </c>
       <c r="C76" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="D76">
         <v>48</v>
@@ -7196,10 +7232,10 @@
         <v>1094</v>
       </c>
       <c r="AO76" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP76" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.2">
@@ -7210,97 +7246,97 @@
         <v>146276</v>
       </c>
       <c r="C77" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="F77">
         <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="H77">
         <v>39</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="J77">
         <v>2</v>
       </c>
       <c r="K77" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="L77">
         <v>21</v>
       </c>
       <c r="M77" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="N77">
         <v>21</v>
       </c>
       <c r="O77" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="R77">
         <v>19</v>
       </c>
       <c r="S77" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="T77">
         <v>39</v>
       </c>
       <c r="U77" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="X77">
         <v>17</v>
       </c>
       <c r="Y77" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="Z77">
         <v>17</v>
       </c>
       <c r="AA77" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AB77">
         <v>4</v>
       </c>
       <c r="AC77" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="AD77">
         <v>18</v>
       </c>
       <c r="AE77" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AF77">
         <v>17</v>
       </c>
       <c r="AG77" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AH77">
         <v>20</v>
       </c>
       <c r="AI77" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AJ77">
         <v>18</v>
       </c>
       <c r="AK77" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AL77">
         <v>274</v>
@@ -7312,10 +7348,10 @@
         <v>274</v>
       </c>
       <c r="AO77" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="AP77" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.2">
@@ -7326,7 +7362,7 @@
         <v>146277</v>
       </c>
       <c r="C78" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="D78">
         <v>63</v>
@@ -7389,10 +7425,10 @@
         <v>1212</v>
       </c>
       <c r="AO78" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP78" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.2">
@@ -7403,7 +7439,7 @@
         <v>146278</v>
       </c>
       <c r="C79" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="D79">
         <v>68</v>
@@ -7466,10 +7502,10 @@
         <v>1196</v>
       </c>
       <c r="AO79" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP79" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:42" x14ac:dyDescent="0.2">
@@ -7480,7 +7516,7 @@
         <v>146279</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="D80">
         <v>69</v>
@@ -7543,10 +7579,10 @@
         <v>1263</v>
       </c>
       <c r="AO80" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP80" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:42" x14ac:dyDescent="0.2">
@@ -7557,7 +7593,7 @@
         <v>146280</v>
       </c>
       <c r="C81" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="D81">
         <v>55</v>
@@ -7620,10 +7656,10 @@
         <v>1135</v>
       </c>
       <c r="AO81" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP81" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:42" x14ac:dyDescent="0.2">
@@ -7634,7 +7670,7 @@
         <v>146281</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="D82">
         <v>62</v>
@@ -7697,10 +7733,10 @@
         <v>1248</v>
       </c>
       <c r="AO82" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP82" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:42" x14ac:dyDescent="0.2">
@@ -7711,7 +7747,7 @@
         <v>146282</v>
       </c>
       <c r="C83" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="D83">
         <v>45</v>
@@ -7774,10 +7810,10 @@
         <v>1113</v>
       </c>
       <c r="AO83" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP83" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:42" x14ac:dyDescent="0.2">
@@ -7788,7 +7824,7 @@
         <v>146283</v>
       </c>
       <c r="C84" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="D84">
         <v>40</v>
@@ -7851,10 +7887,10 @@
         <v>1034</v>
       </c>
       <c r="AO84" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP84" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:42" x14ac:dyDescent="0.2">
@@ -7865,7 +7901,7 @@
         <v>146284</v>
       </c>
       <c r="C85" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="D85">
         <v>56</v>
@@ -7928,10 +7964,10 @@
         <v>1154</v>
       </c>
       <c r="AO85" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP85" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:42" x14ac:dyDescent="0.2">
@@ -7942,7 +7978,7 @@
         <v>146285</v>
       </c>
       <c r="C86" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D86">
         <v>58</v>
@@ -8005,10 +8041,10 @@
         <v>1130</v>
       </c>
       <c r="AO86" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP86" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:42" x14ac:dyDescent="0.2">
@@ -8019,7 +8055,7 @@
         <v>146286</v>
       </c>
       <c r="C87" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="D87">
         <v>50</v>
@@ -8082,10 +8118,10 @@
         <v>995</v>
       </c>
       <c r="AO87" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP87" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.2">
@@ -8096,109 +8132,109 @@
         <v>146287</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="F88">
         <v>20</v>
       </c>
       <c r="G88" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="H88">
         <v>41</v>
       </c>
       <c r="I88" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="J88">
         <v>57</v>
       </c>
       <c r="K88" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="L88">
         <v>20</v>
       </c>
       <c r="M88" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="N88">
         <v>20</v>
       </c>
       <c r="O88" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="P88">
         <v>47</v>
       </c>
       <c r="Q88" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="R88">
         <v>18</v>
       </c>
       <c r="S88" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="T88">
         <v>41</v>
       </c>
       <c r="U88" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="V88">
         <v>4</v>
       </c>
       <c r="W88" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="X88">
         <v>18</v>
       </c>
       <c r="Y88" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="Z88">
         <v>19</v>
       </c>
       <c r="AA88" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AB88">
         <v>11</v>
       </c>
       <c r="AC88" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="AD88">
         <v>20</v>
       </c>
       <c r="AE88" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AF88">
         <v>20</v>
       </c>
       <c r="AG88" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AH88">
         <v>20</v>
       </c>
       <c r="AI88" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AJ88">
         <v>19</v>
       </c>
       <c r="AK88" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AL88">
         <v>397</v>
@@ -8210,10 +8246,10 @@
         <v>397</v>
       </c>
       <c r="AO88" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="AP88" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:42" x14ac:dyDescent="0.2">
@@ -8224,109 +8260,109 @@
         <v>146288</v>
       </c>
       <c r="C89" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="D89">
         <v>27</v>
       </c>
       <c r="E89" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="F89">
         <v>23</v>
       </c>
       <c r="G89" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="H89">
         <v>43</v>
       </c>
       <c r="I89" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="J89">
         <v>57</v>
       </c>
       <c r="K89" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="L89">
         <v>23</v>
       </c>
       <c r="M89" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="N89">
         <v>23</v>
       </c>
       <c r="O89" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="P89">
         <v>49</v>
       </c>
       <c r="Q89" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="R89">
         <v>23</v>
       </c>
       <c r="S89" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="T89">
         <v>43</v>
       </c>
       <c r="U89" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="V89">
         <v>62</v>
       </c>
       <c r="W89" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="X89">
         <v>23</v>
       </c>
       <c r="Y89" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="Z89">
         <v>20</v>
       </c>
       <c r="AA89" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AB89">
         <v>67</v>
       </c>
       <c r="AC89" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AD89">
         <v>23</v>
       </c>
       <c r="AE89" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AF89">
         <v>23</v>
       </c>
       <c r="AG89" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AH89">
         <v>23</v>
       </c>
       <c r="AI89" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AJ89">
         <v>22</v>
       </c>
       <c r="AK89" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AL89">
         <v>574</v>
@@ -8338,10 +8374,10 @@
         <v>1099</v>
       </c>
       <c r="AO89" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="AP89" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.2">
@@ -8352,7 +8388,7 @@
         <v>146289</v>
       </c>
       <c r="C90" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="D90">
         <v>41</v>
@@ -8415,10 +8451,10 @@
         <v>1066</v>
       </c>
       <c r="AO90" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP90" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.2">
@@ -8429,7 +8465,7 @@
         <v>146290</v>
       </c>
       <c r="C91" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="D91">
         <v>40</v>
@@ -8492,10 +8528,10 @@
         <v>968</v>
       </c>
       <c r="AO91" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP91" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:42" x14ac:dyDescent="0.2">
@@ -8506,7 +8542,7 @@
         <v>146291</v>
       </c>
       <c r="C92" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="D92">
         <v>46</v>
@@ -8569,10 +8605,10 @@
         <v>1051</v>
       </c>
       <c r="AO92" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP92" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:42" x14ac:dyDescent="0.2">
@@ -8583,7 +8619,7 @@
         <v>146292</v>
       </c>
       <c r="C93" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="D93">
         <v>35</v>
@@ -8646,10 +8682,10 @@
         <v>1022</v>
       </c>
       <c r="AO93" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP93" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:42" x14ac:dyDescent="0.2">
@@ -8660,7 +8696,7 @@
         <v>146293</v>
       </c>
       <c r="C94" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="D94">
         <v>47</v>
@@ -8723,10 +8759,10 @@
         <v>1078</v>
       </c>
       <c r="AO94" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP94" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:42" x14ac:dyDescent="0.2">
@@ -8737,7 +8773,7 @@
         <v>146294</v>
       </c>
       <c r="C95" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="D95">
         <v>40</v>
@@ -8800,10 +8836,10 @@
         <v>539</v>
       </c>
       <c r="AO95" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP95" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:42" x14ac:dyDescent="0.2">
@@ -8814,7 +8850,7 @@
         <v>146295</v>
       </c>
       <c r="C96" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="D96">
         <v>66</v>
@@ -8877,10 +8913,10 @@
         <v>1107</v>
       </c>
       <c r="AO96" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP96" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:42" x14ac:dyDescent="0.2">
@@ -8891,7 +8927,7 @@
         <v>146296</v>
       </c>
       <c r="C97" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="D97">
         <v>69</v>
@@ -8954,10 +8990,10 @@
         <v>1284</v>
       </c>
       <c r="AO97" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP97" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:42" x14ac:dyDescent="0.2">
@@ -8968,7 +9004,7 @@
         <v>146297</v>
       </c>
       <c r="C98" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="D98">
         <v>56</v>
@@ -9031,10 +9067,10 @@
         <v>1104</v>
       </c>
       <c r="AO98" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP98" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.2">
@@ -9045,7 +9081,7 @@
         <v>146298</v>
       </c>
       <c r="C99" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="D99">
         <v>61</v>
@@ -9108,10 +9144,10 @@
         <v>1135</v>
       </c>
       <c r="AO99" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP99" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:42" x14ac:dyDescent="0.2">
@@ -9122,7 +9158,7 @@
         <v>146299</v>
       </c>
       <c r="C100" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="D100">
         <v>56</v>
@@ -9185,10 +9221,10 @@
         <v>1086</v>
       </c>
       <c r="AO100" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP100" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.2">
@@ -9199,7 +9235,7 @@
         <v>146300</v>
       </c>
       <c r="C101" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="D101">
         <v>70</v>
@@ -9262,10 +9298,10 @@
         <v>1225</v>
       </c>
       <c r="AO101" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP101" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.2">
@@ -9276,7 +9312,7 @@
         <v>146301</v>
       </c>
       <c r="C102" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="D102">
         <v>54</v>
@@ -9339,10 +9375,10 @@
         <v>1132</v>
       </c>
       <c r="AO102" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP102" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.2">
@@ -9353,7 +9389,7 @@
         <v>146302</v>
       </c>
       <c r="C103" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="D103">
         <v>53</v>
@@ -9416,10 +9452,10 @@
         <v>1007</v>
       </c>
       <c r="AO103" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP103" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.2">
@@ -9430,7 +9466,7 @@
         <v>146303</v>
       </c>
       <c r="C104" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="D104">
         <v>40</v>
@@ -9493,10 +9529,10 @@
         <v>1109</v>
       </c>
       <c r="AO104" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP104" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.2">
@@ -9507,7 +9543,7 @@
         <v>146304</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="D105">
         <v>49</v>
@@ -9570,10 +9606,10 @@
         <v>1096</v>
       </c>
       <c r="AO105" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP105" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106" spans="1:42" x14ac:dyDescent="0.2">
@@ -9584,7 +9620,7 @@
         <v>146305</v>
       </c>
       <c r="C106" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="D106">
         <v>40</v>
@@ -9647,10 +9683,10 @@
         <v>978</v>
       </c>
       <c r="AO106" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP106" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="1:42" x14ac:dyDescent="0.2">
@@ -9661,7 +9697,7 @@
         <v>146306</v>
       </c>
       <c r="C107" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="D107">
         <v>56</v>
@@ -9724,10 +9760,10 @@
         <v>1086</v>
       </c>
       <c r="AO107" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP107" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:42" x14ac:dyDescent="0.2">
@@ -9738,7 +9774,7 @@
         <v>146307</v>
       </c>
       <c r="C108" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="D108">
         <v>50</v>
@@ -9801,10 +9837,10 @@
         <v>1116</v>
       </c>
       <c r="AO108" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP108" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.2">
@@ -9815,109 +9851,109 @@
         <v>146308</v>
       </c>
       <c r="C109" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="D109">
         <v>45</v>
       </c>
       <c r="E109" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="F109">
         <v>19</v>
       </c>
       <c r="G109" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="H109">
         <v>43</v>
       </c>
       <c r="I109" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="J109">
         <v>40</v>
       </c>
       <c r="K109" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="L109">
         <v>20</v>
       </c>
       <c r="M109" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="N109">
         <v>20</v>
       </c>
       <c r="O109" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="P109">
         <v>44</v>
       </c>
       <c r="Q109" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="R109">
         <v>20</v>
       </c>
       <c r="S109" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="T109">
         <v>43</v>
       </c>
       <c r="U109" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="V109">
         <v>45</v>
       </c>
       <c r="W109" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="X109">
         <v>17</v>
       </c>
       <c r="Y109" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="Z109">
         <v>17</v>
       </c>
       <c r="AA109" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AB109">
         <v>27</v>
       </c>
       <c r="AC109" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="AD109">
         <v>20</v>
       </c>
       <c r="AE109" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AF109">
         <v>19</v>
       </c>
       <c r="AG109" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AH109">
         <v>20</v>
       </c>
       <c r="AI109" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AJ109">
         <v>21</v>
       </c>
       <c r="AK109" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AL109">
         <v>480</v>
@@ -9929,10 +9965,10 @@
         <v>958</v>
       </c>
       <c r="AO109" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="AP109" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.2">
@@ -9943,7 +9979,7 @@
         <v>146309</v>
       </c>
       <c r="C110" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="D110">
         <v>70</v>
@@ -10006,10 +10042,10 @@
         <v>1259</v>
       </c>
       <c r="AO110" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP110" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.2">
@@ -10020,7 +10056,7 @@
         <v>146310</v>
       </c>
       <c r="C111" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="D111">
         <v>70</v>
@@ -10083,10 +10119,10 @@
         <v>1189</v>
       </c>
       <c r="AO111" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP111" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.2">
@@ -10097,7 +10133,7 @@
         <v>146311</v>
       </c>
       <c r="C112" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="D112">
         <v>57</v>
@@ -10160,10 +10196,10 @@
         <v>1072</v>
       </c>
       <c r="AO112" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP112" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:42" x14ac:dyDescent="0.2">
@@ -10174,7 +10210,7 @@
         <v>146312</v>
       </c>
       <c r="C113" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="D113">
         <v>65</v>
@@ -10237,10 +10273,10 @@
         <v>1232</v>
       </c>
       <c r="AO113" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP113" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.2">
@@ -10251,7 +10287,7 @@
         <v>146313</v>
       </c>
       <c r="C114" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="D114">
         <v>34</v>
@@ -10314,10 +10350,10 @@
         <v>984</v>
       </c>
       <c r="AO114" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP114" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.2">
@@ -10328,7 +10364,7 @@
         <v>146314</v>
       </c>
       <c r="C115" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="D115">
         <v>51</v>
@@ -10391,10 +10427,10 @@
         <v>1128</v>
       </c>
       <c r="AO115" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP115" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.2">
@@ -10405,7 +10441,7 @@
         <v>146315</v>
       </c>
       <c r="C116" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="D116">
         <v>53</v>
@@ -10468,10 +10504,10 @@
         <v>1083</v>
       </c>
       <c r="AO116" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP116" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.2">
@@ -10482,7 +10518,7 @@
         <v>146316</v>
       </c>
       <c r="C117" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="D117">
         <v>46</v>
@@ -10545,10 +10581,10 @@
         <v>978</v>
       </c>
       <c r="AO117" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP117" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:42" x14ac:dyDescent="0.2">
@@ -10559,7 +10595,7 @@
         <v>146317</v>
       </c>
       <c r="C118" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="D118">
         <v>63</v>
@@ -10622,10 +10658,10 @@
         <v>1162</v>
       </c>
       <c r="AO118" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP118" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.2">
@@ -10636,7 +10672,7 @@
         <v>146318</v>
       </c>
       <c r="C119" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="D119">
         <v>70</v>
@@ -10699,10 +10735,10 @@
         <v>1249</v>
       </c>
       <c r="AO119" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP119" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.2">
@@ -10713,7 +10749,7 @@
         <v>146319</v>
       </c>
       <c r="C120" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="D120">
         <v>66</v>
@@ -10776,10 +10812,10 @@
         <v>1138</v>
       </c>
       <c r="AO120" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP120" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.2">
@@ -10790,7 +10826,7 @@
         <v>146320</v>
       </c>
       <c r="C121" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="D121">
         <v>65</v>
@@ -10853,10 +10889,10 @@
         <v>1231</v>
       </c>
       <c r="AO121" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP121" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.2">
@@ -10867,7 +10903,7 @@
         <v>146321</v>
       </c>
       <c r="C122" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="D122">
         <v>66</v>
@@ -10930,10 +10966,10 @@
         <v>1202</v>
       </c>
       <c r="AO122" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP122" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:42" x14ac:dyDescent="0.2">
@@ -10944,7 +10980,7 @@
         <v>146322</v>
       </c>
       <c r="C123" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="D123">
         <v>73</v>
@@ -11007,10 +11043,10 @@
         <v>1175</v>
       </c>
       <c r="AO123" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP123" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.2">
@@ -11021,109 +11057,109 @@
         <v>146323</v>
       </c>
       <c r="C124" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="D124">
         <v>27</v>
       </c>
       <c r="E124" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="F124">
         <v>22</v>
       </c>
       <c r="G124" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="H124">
         <v>42</v>
       </c>
       <c r="I124" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="J124">
         <v>4</v>
       </c>
       <c r="K124" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="L124">
         <v>23</v>
       </c>
       <c r="M124" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="N124">
         <v>23</v>
       </c>
       <c r="O124" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="P124">
         <v>41</v>
       </c>
       <c r="Q124" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="R124">
         <v>22</v>
       </c>
       <c r="S124" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="T124">
         <v>42</v>
       </c>
       <c r="U124" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="V124">
         <v>40</v>
       </c>
       <c r="W124" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="X124">
         <v>22</v>
       </c>
       <c r="Y124" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="Z124">
         <v>18</v>
       </c>
       <c r="AA124" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AB124">
         <v>42</v>
       </c>
       <c r="AC124" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AD124">
         <v>22</v>
       </c>
       <c r="AE124" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AF124">
         <v>22</v>
       </c>
       <c r="AG124" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AH124">
         <v>22</v>
       </c>
       <c r="AI124" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AJ124">
         <v>21</v>
       </c>
       <c r="AK124" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AL124">
         <v>455</v>
@@ -11135,10 +11171,10 @@
         <v>455</v>
       </c>
       <c r="AO124" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="AP124" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.2">
@@ -11149,7 +11185,7 @@
         <v>146324</v>
       </c>
       <c r="C125" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="D125">
         <v>51</v>
@@ -11212,10 +11248,10 @@
         <v>1119</v>
       </c>
       <c r="AO125" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP125" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:42" x14ac:dyDescent="0.2">
@@ -11226,7 +11262,7 @@
         <v>146325</v>
       </c>
       <c r="C126" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="D126">
         <v>61</v>
@@ -11289,10 +11325,10 @@
         <v>1197</v>
       </c>
       <c r="AO126" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP126" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.2">
@@ -11303,7 +11339,7 @@
         <v>146326</v>
       </c>
       <c r="C127" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="D127">
         <v>41</v>
@@ -11366,10 +11402,10 @@
         <v>1065</v>
       </c>
       <c r="AO127" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP127" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:42" x14ac:dyDescent="0.2">
@@ -11380,7 +11416,7 @@
         <v>146327</v>
       </c>
       <c r="C128" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D128">
         <v>68</v>
@@ -11443,10 +11479,10 @@
         <v>1154</v>
       </c>
       <c r="AO128" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP128" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:42" x14ac:dyDescent="0.2">
@@ -11457,7 +11493,7 @@
         <v>146328</v>
       </c>
       <c r="C129" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="D129">
         <v>59</v>
@@ -11520,10 +11556,10 @@
         <v>1096</v>
       </c>
       <c r="AO129" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP129" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:42" x14ac:dyDescent="0.2">
@@ -11534,7 +11570,7 @@
         <v>146329</v>
       </c>
       <c r="C130" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="D130">
         <v>57</v>
@@ -11597,10 +11633,10 @@
         <v>1072</v>
       </c>
       <c r="AO130" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP130" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:42" x14ac:dyDescent="0.2">
@@ -11611,7 +11647,7 @@
         <v>146330</v>
       </c>
       <c r="C131" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="D131">
         <v>46</v>
@@ -11674,10 +11710,10 @@
         <v>972</v>
       </c>
       <c r="AO131" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP131" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:42" x14ac:dyDescent="0.2">
@@ -11688,7 +11724,7 @@
         <v>146331</v>
       </c>
       <c r="C132" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="D132">
         <v>56</v>
@@ -11751,10 +11787,10 @@
         <v>1031</v>
       </c>
       <c r="AO132" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP132" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:42" x14ac:dyDescent="0.2">
@@ -11765,7 +11801,7 @@
         <v>146332</v>
       </c>
       <c r="C133" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="D133">
         <v>58</v>
@@ -11828,10 +11864,10 @@
         <v>1104</v>
       </c>
       <c r="AO133" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP133" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:42" x14ac:dyDescent="0.2">
@@ -11842,109 +11878,109 @@
         <v>146333</v>
       </c>
       <c r="C134" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="D134">
         <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="F134">
         <v>21</v>
       </c>
       <c r="G134" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="H134">
         <v>42</v>
       </c>
       <c r="I134" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="J134">
         <v>51</v>
       </c>
       <c r="K134" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="L134">
         <v>23</v>
       </c>
       <c r="M134" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="N134">
         <v>23</v>
       </c>
       <c r="O134" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="P134">
         <v>48</v>
       </c>
       <c r="Q134" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="R134">
         <v>22</v>
       </c>
       <c r="S134" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="T134">
         <v>42</v>
       </c>
       <c r="U134" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="V134">
         <v>41</v>
       </c>
       <c r="W134" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="X134">
         <v>21</v>
       </c>
       <c r="Y134" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="Z134">
         <v>21</v>
       </c>
       <c r="AA134" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AB134">
         <v>50</v>
       </c>
       <c r="AC134" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AD134">
         <v>23</v>
       </c>
       <c r="AE134" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AF134">
         <v>22</v>
       </c>
       <c r="AG134" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AH134">
         <v>21</v>
       </c>
       <c r="AI134" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AJ134">
         <v>21</v>
       </c>
       <c r="AK134" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AL134">
         <v>507</v>
@@ -11956,10 +11992,10 @@
         <v>1026</v>
       </c>
       <c r="AO134" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="AP134" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:42" x14ac:dyDescent="0.2">
@@ -11970,7 +12006,7 @@
         <v>146334</v>
       </c>
       <c r="C135" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="D135">
         <v>57</v>
@@ -12033,10 +12069,10 @@
         <v>1140</v>
       </c>
       <c r="AO135" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP135" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:42" x14ac:dyDescent="0.2">
@@ -12047,7 +12083,7 @@
         <v>146335</v>
       </c>
       <c r="C136" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="D136">
         <v>42</v>
@@ -12110,10 +12146,10 @@
         <v>1061</v>
       </c>
       <c r="AO136" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP136" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:42" x14ac:dyDescent="0.2">
@@ -12124,7 +12160,7 @@
         <v>146336</v>
       </c>
       <c r="C137" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="D137">
         <v>69</v>
@@ -12187,10 +12223,10 @@
         <v>1162</v>
       </c>
       <c r="AO137" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP137" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:42" x14ac:dyDescent="0.2">
@@ -12201,7 +12237,7 @@
         <v>146337</v>
       </c>
       <c r="C138" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="D138">
         <v>44</v>
@@ -12264,10 +12300,10 @@
         <v>1059</v>
       </c>
       <c r="AO138" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP138" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:42" x14ac:dyDescent="0.2">
@@ -12278,7 +12314,7 @@
         <v>146338</v>
       </c>
       <c r="C139" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="D139">
         <v>49</v>
@@ -12341,10 +12377,10 @@
         <v>1120</v>
       </c>
       <c r="AO139" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP139" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140" spans="1:42" x14ac:dyDescent="0.2">
@@ -12355,7 +12391,7 @@
         <v>146339</v>
       </c>
       <c r="C140" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="D140">
         <v>49</v>
@@ -12418,10 +12454,10 @@
         <v>986</v>
       </c>
       <c r="AO140" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP140" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141" spans="1:42" x14ac:dyDescent="0.2">
@@ -12432,7 +12468,7 @@
         <v>146340</v>
       </c>
       <c r="C141" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="D141">
         <v>54</v>
@@ -12495,10 +12531,10 @@
         <v>987</v>
       </c>
       <c r="AO141" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP141" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142" spans="1:42" x14ac:dyDescent="0.2">
@@ -12509,7 +12545,7 @@
         <v>146341</v>
       </c>
       <c r="C142" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="D142">
         <v>57</v>
@@ -12572,10 +12608,10 @@
         <v>1058</v>
       </c>
       <c r="AO142" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP142" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143" spans="1:42" x14ac:dyDescent="0.2">
@@ -12586,7 +12622,7 @@
         <v>146342</v>
       </c>
       <c r="C143" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="D143">
         <v>65</v>
@@ -12649,10 +12685,10 @@
         <v>1246</v>
       </c>
       <c r="AO143" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP143" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144" spans="1:42" x14ac:dyDescent="0.2">
@@ -12663,7 +12699,7 @@
         <v>146343</v>
       </c>
       <c r="C144" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="D144">
         <v>65</v>
@@ -12726,10 +12762,10 @@
         <v>1101</v>
       </c>
       <c r="AO144" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP144" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145" spans="1:42" x14ac:dyDescent="0.2">
@@ -12740,7 +12776,7 @@
         <v>146344</v>
       </c>
       <c r="C145" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="D145">
         <v>70</v>
@@ -12803,10 +12839,10 @@
         <v>1203</v>
       </c>
       <c r="AO145" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP145" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146" spans="1:42" x14ac:dyDescent="0.2">
@@ -12817,7 +12853,7 @@
         <v>146345</v>
       </c>
       <c r="C146" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="D146">
         <v>40</v>
@@ -12880,10 +12916,10 @@
         <v>1108</v>
       </c>
       <c r="AO146" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP146" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147" spans="1:42" x14ac:dyDescent="0.2">
@@ -12894,97 +12930,97 @@
         <v>146346</v>
       </c>
       <c r="C147" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="D147">
         <v>45</v>
       </c>
       <c r="E147" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="F147">
         <v>20</v>
       </c>
       <c r="G147" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="H147">
         <v>42</v>
       </c>
       <c r="I147" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="L147">
         <v>19</v>
       </c>
       <c r="M147" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="N147">
         <v>22</v>
       </c>
       <c r="O147" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="P147">
         <v>5</v>
       </c>
       <c r="Q147" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="R147">
         <v>22</v>
       </c>
       <c r="S147" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="T147">
         <v>40</v>
       </c>
       <c r="U147" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="X147">
         <v>20</v>
       </c>
       <c r="Y147" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="Z147">
         <v>20</v>
       </c>
       <c r="AA147" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AB147">
         <v>45</v>
       </c>
       <c r="AC147" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AD147">
         <v>19</v>
       </c>
       <c r="AE147" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AF147">
         <v>20</v>
       </c>
       <c r="AG147" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AH147">
         <v>18</v>
       </c>
       <c r="AI147" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AJ147">
         <v>19</v>
       </c>
       <c r="AK147" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AL147">
         <v>376</v>
@@ -12996,10 +13032,10 @@
         <v>376</v>
       </c>
       <c r="AO147" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="AP147" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:42" x14ac:dyDescent="0.2">
@@ -13010,7 +13046,7 @@
         <v>146347</v>
       </c>
       <c r="C148" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="D148">
         <v>57</v>
@@ -13073,10 +13109,10 @@
         <v>1056</v>
       </c>
       <c r="AO148" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP148" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="149" spans="1:42" x14ac:dyDescent="0.2">
@@ -13087,7 +13123,7 @@
         <v>146348</v>
       </c>
       <c r="C149" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="D149">
         <v>40</v>
@@ -13150,10 +13186,10 @@
         <v>962</v>
       </c>
       <c r="AO149" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP149" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="150" spans="1:42" x14ac:dyDescent="0.2">
@@ -13164,7 +13200,7 @@
         <v>146349</v>
       </c>
       <c r="C150" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="D150">
         <v>41</v>
@@ -13227,10 +13263,10 @@
         <v>964</v>
       </c>
       <c r="AO150" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP150" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
     </row>
     <row r="151" spans="1:42" x14ac:dyDescent="0.2">
@@ -13241,109 +13277,109 @@
         <v>146350</v>
       </c>
       <c r="C151" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="D151">
         <v>29</v>
       </c>
       <c r="E151" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="F151">
         <v>21</v>
       </c>
       <c r="G151" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="H151">
         <v>38</v>
       </c>
       <c r="I151" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="J151">
         <v>40</v>
       </c>
       <c r="K151" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="L151">
         <v>21</v>
       </c>
       <c r="M151" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="N151">
         <v>21</v>
       </c>
       <c r="O151" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="P151">
         <v>24</v>
       </c>
       <c r="Q151" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="R151">
         <v>19</v>
       </c>
       <c r="S151" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="T151">
         <v>38</v>
       </c>
       <c r="U151" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="V151">
         <v>40</v>
       </c>
       <c r="W151" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="X151">
         <v>18</v>
       </c>
       <c r="Y151" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="Z151">
         <v>18</v>
       </c>
       <c r="AA151" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AB151">
         <v>42</v>
       </c>
       <c r="AC151" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AD151">
         <v>20</v>
       </c>
       <c r="AE151" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AF151">
         <v>21</v>
       </c>
       <c r="AG151" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AH151">
         <v>20</v>
       </c>
       <c r="AI151" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AJ151">
         <v>18</v>
       </c>
       <c r="AK151" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AL151">
         <v>448</v>
@@ -13355,10 +13391,10 @@
         <v>448</v>
       </c>
       <c r="AO151" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="AP151" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
     </row>
     <row r="152" spans="1:42" x14ac:dyDescent="0.2">
@@ -13369,7 +13405,7 @@
         <v>146351</v>
       </c>
       <c r="C152" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="D152">
         <v>40</v>
@@ -13432,10 +13468,10 @@
         <v>962</v>
       </c>
       <c r="AO152" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP152" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153" spans="1:42" x14ac:dyDescent="0.2">
@@ -13446,109 +13482,109 @@
         <v>146352</v>
       </c>
       <c r="C153" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="D153">
         <v>40</v>
       </c>
       <c r="E153" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="F153">
         <v>19</v>
       </c>
       <c r="G153" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="H153">
         <v>41</v>
       </c>
       <c r="I153" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="J153">
         <v>49</v>
       </c>
       <c r="K153" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="L153">
         <v>19</v>
       </c>
       <c r="M153" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="N153">
         <v>19</v>
       </c>
       <c r="O153" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="P153">
         <v>26</v>
       </c>
       <c r="Q153" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="R153">
         <v>19</v>
       </c>
       <c r="S153" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="T153">
         <v>41</v>
       </c>
       <c r="U153" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="V153">
         <v>25</v>
       </c>
       <c r="W153" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="X153">
         <v>17</v>
       </c>
       <c r="Y153" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="Z153">
         <v>17</v>
       </c>
       <c r="AA153" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AB153">
         <v>44</v>
       </c>
       <c r="AC153" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AD153">
         <v>19</v>
       </c>
       <c r="AE153" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AF153">
         <v>20</v>
       </c>
       <c r="AG153" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AH153">
         <v>20</v>
       </c>
       <c r="AI153" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AJ153">
         <v>21</v>
       </c>
       <c r="AK153" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AL153">
         <v>456</v>
@@ -13560,10 +13596,10 @@
         <v>949</v>
       </c>
       <c r="AO153" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="AP153" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
     </row>
     <row r="154" spans="1:42" x14ac:dyDescent="0.2">
@@ -13574,7 +13610,7 @@
         <v>146353</v>
       </c>
       <c r="C154" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="D154">
         <v>63</v>
@@ -13637,10 +13673,10 @@
         <v>1073</v>
       </c>
       <c r="AO154" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP154" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="155" spans="1:42" x14ac:dyDescent="0.2">
@@ -13651,91 +13687,91 @@
         <v>146354</v>
       </c>
       <c r="C155" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="F155">
         <v>23</v>
       </c>
       <c r="G155" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="H155">
         <v>38</v>
       </c>
       <c r="I155" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="L155">
         <v>23</v>
       </c>
       <c r="M155" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="N155">
         <v>20</v>
       </c>
       <c r="O155" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="P155">
         <v>44</v>
       </c>
       <c r="Q155" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="R155">
         <v>23</v>
       </c>
       <c r="S155" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="T155">
         <v>38</v>
       </c>
       <c r="U155" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="V155">
         <v>40</v>
       </c>
       <c r="W155" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="X155">
         <v>23</v>
       </c>
       <c r="Y155" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="Z155">
         <v>23</v>
       </c>
       <c r="AA155" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AD155">
         <v>23</v>
       </c>
       <c r="AE155" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AF155">
         <v>18</v>
       </c>
       <c r="AG155" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AH155">
         <v>23</v>
       </c>
       <c r="AI155" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AJ155">
         <v>23</v>
       </c>
       <c r="AK155" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AL155">
         <v>382</v>
@@ -13747,10 +13783,10 @@
         <v>382</v>
       </c>
       <c r="AO155" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AP155" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156" spans="1:42" x14ac:dyDescent="0.2">
@@ -13761,79 +13797,79 @@
         <v>146355</v>
       </c>
       <c r="C156" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="F156">
         <v>19</v>
       </c>
       <c r="G156" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="H156">
         <v>41</v>
       </c>
       <c r="I156" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="L156">
         <v>20</v>
       </c>
       <c r="M156" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="N156">
         <v>17</v>
       </c>
       <c r="O156" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="R156">
         <v>21</v>
       </c>
       <c r="S156" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="T156">
         <v>39</v>
       </c>
       <c r="U156" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="X156">
         <v>18</v>
       </c>
       <c r="Y156" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="Z156">
         <v>18</v>
       </c>
       <c r="AA156" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AD156">
         <v>21</v>
       </c>
       <c r="AE156" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AF156">
         <v>21</v>
       </c>
       <c r="AG156" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AH156">
         <v>21</v>
       </c>
       <c r="AI156" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AJ156">
         <v>21</v>
       </c>
       <c r="AK156" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AL156">
         <v>277</v>
@@ -13845,10 +13881,10 @@
         <v>277</v>
       </c>
       <c r="AO156" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AP156" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157" spans="1:42" x14ac:dyDescent="0.2">
@@ -13859,43 +13895,43 @@
         <v>146356</v>
       </c>
       <c r="C157" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="D157">
         <v>40</v>
       </c>
       <c r="E157" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="F157">
         <v>23</v>
       </c>
       <c r="G157" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="H157">
         <v>46</v>
       </c>
       <c r="I157" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="J157">
         <v>45</v>
       </c>
       <c r="K157" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="L157">
         <v>23</v>
       </c>
       <c r="M157" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="N157">
         <v>22</v>
       </c>
       <c r="O157" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="P157">
         <v>44</v>
@@ -13904,13 +13940,13 @@
         <v>23</v>
       </c>
       <c r="S157" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="T157">
         <v>44</v>
       </c>
       <c r="U157" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="V157">
         <v>51</v>
@@ -13919,43 +13955,43 @@
         <v>23</v>
       </c>
       <c r="Y157" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="Z157">
         <v>23</v>
       </c>
       <c r="AA157" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AB157">
         <v>40</v>
       </c>
       <c r="AC157" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AD157">
         <v>23</v>
       </c>
       <c r="AE157" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AF157">
         <v>21</v>
       </c>
       <c r="AG157" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AH157">
         <v>23</v>
       </c>
       <c r="AI157" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AJ157">
         <v>23</v>
       </c>
       <c r="AK157" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AL157">
         <v>537</v>
@@ -13967,10 +14003,10 @@
         <v>1057</v>
       </c>
       <c r="AO157" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP157" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="158" spans="1:42" x14ac:dyDescent="0.2">
@@ -13981,97 +14017,97 @@
         <v>146357</v>
       </c>
       <c r="C158" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D158">
         <v>40</v>
       </c>
       <c r="E158" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="F158">
         <v>14</v>
       </c>
       <c r="G158" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="H158">
         <v>35</v>
       </c>
       <c r="I158" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="L158">
         <v>19</v>
       </c>
       <c r="M158" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="N158">
         <v>17</v>
       </c>
       <c r="O158" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="P158">
         <v>40</v>
       </c>
       <c r="Q158" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="R158">
         <v>14</v>
       </c>
       <c r="S158" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="T158">
         <v>40</v>
       </c>
       <c r="U158" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="X158">
         <v>14</v>
       </c>
       <c r="Y158" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="Z158">
         <v>14</v>
       </c>
       <c r="AA158" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AB158">
         <v>40</v>
       </c>
       <c r="AC158" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AD158">
         <v>19</v>
       </c>
       <c r="AE158" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AF158">
         <v>20</v>
       </c>
       <c r="AG158" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AH158">
         <v>18</v>
       </c>
       <c r="AI158" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AJ158">
         <v>18</v>
       </c>
       <c r="AK158" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AL158">
         <v>362</v>
@@ -14083,10 +14119,10 @@
         <v>362</v>
       </c>
       <c r="AO158" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AP158" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
     </row>
     <row r="159" spans="1:42" x14ac:dyDescent="0.2">
@@ -14097,7 +14133,7 @@
         <v>146358</v>
       </c>
       <c r="C159" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="D159">
         <v>44</v>
@@ -14106,49 +14142,49 @@
         <v>19</v>
       </c>
       <c r="G159" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="H159">
         <v>38</v>
       </c>
       <c r="I159" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="J159">
         <v>44</v>
       </c>
       <c r="K159" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="L159">
         <v>19</v>
       </c>
       <c r="M159" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="N159">
         <v>20</v>
       </c>
       <c r="O159" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="P159">
         <v>40</v>
       </c>
       <c r="Q159" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="R159">
         <v>19</v>
       </c>
       <c r="S159" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="T159">
         <v>38</v>
       </c>
       <c r="U159" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="V159">
         <v>43</v>
@@ -14157,43 +14193,43 @@
         <v>20</v>
       </c>
       <c r="Y159" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="Z159">
         <v>21</v>
       </c>
       <c r="AA159" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AB159">
         <v>42</v>
       </c>
       <c r="AC159" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AD159">
         <v>19</v>
       </c>
       <c r="AE159" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AF159">
         <v>20</v>
       </c>
       <c r="AG159" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AH159">
         <v>20</v>
       </c>
       <c r="AI159" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AJ159">
         <v>21</v>
       </c>
       <c r="AK159" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AL159">
         <v>487</v>
@@ -14205,10 +14241,10 @@
         <v>951</v>
       </c>
       <c r="AO159" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AP159" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160" spans="1:42" x14ac:dyDescent="0.2">
@@ -14219,79 +14255,79 @@
         <v>146359</v>
       </c>
       <c r="C160" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="F160">
         <v>20</v>
       </c>
       <c r="G160" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="H160">
         <v>44</v>
       </c>
       <c r="I160" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="L160">
         <v>13</v>
       </c>
       <c r="M160" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="N160">
         <v>13</v>
       </c>
       <c r="O160" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="R160">
         <v>15</v>
       </c>
       <c r="S160" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="T160">
         <v>36</v>
       </c>
       <c r="U160" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="X160">
         <v>20</v>
       </c>
       <c r="Y160" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="Z160">
         <v>18</v>
       </c>
       <c r="AA160" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AD160">
         <v>18</v>
       </c>
       <c r="AE160" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AF160">
         <v>16</v>
       </c>
       <c r="AG160" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AH160">
         <v>20</v>
       </c>
       <c r="AI160" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AJ160">
         <v>20</v>
       </c>
       <c r="AK160" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AL160">
         <v>253</v>
@@ -14303,10 +14339,10 @@
         <v>253</v>
       </c>
       <c r="AO160" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AP160" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161" spans="1:42" x14ac:dyDescent="0.2">
@@ -14317,109 +14353,109 @@
         <v>42</v>
       </c>
       <c r="C161" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="D161">
         <v>5</v>
       </c>
       <c r="E161" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="F161">
         <v>21</v>
       </c>
       <c r="G161" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="H161">
         <v>40</v>
       </c>
       <c r="I161" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="J161">
         <v>40</v>
       </c>
       <c r="K161" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="L161">
         <v>14</v>
       </c>
       <c r="M161" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="N161">
         <v>21</v>
       </c>
       <c r="O161" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="P161">
         <v>0</v>
       </c>
       <c r="Q161" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="R161">
         <v>18</v>
       </c>
       <c r="S161" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="T161">
         <v>35</v>
       </c>
       <c r="U161" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="V161">
         <v>24</v>
       </c>
       <c r="W161" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="X161">
         <v>20</v>
       </c>
       <c r="Y161" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="Z161">
         <v>18</v>
       </c>
       <c r="AA161" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AB161">
         <v>40</v>
       </c>
       <c r="AC161" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AD161">
         <v>19</v>
       </c>
       <c r="AE161" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AF161">
         <v>19</v>
       </c>
       <c r="AG161" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AH161">
         <v>18</v>
       </c>
       <c r="AI161" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AJ161">
         <v>19</v>
       </c>
       <c r="AK161" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AL161">
         <v>371</v>
@@ -14431,10 +14467,10 @@
         <v>371</v>
       </c>
       <c r="AO161" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="AP161" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
     </row>
     <row r="162" spans="1:42" x14ac:dyDescent="0.2">
@@ -14445,109 +14481,109 @@
         <v>43</v>
       </c>
       <c r="C162" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="D162">
         <v>34</v>
       </c>
       <c r="E162" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="F162">
         <v>21</v>
       </c>
       <c r="G162" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="H162">
         <v>40</v>
       </c>
       <c r="I162" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="J162">
         <v>40</v>
       </c>
       <c r="K162" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="L162">
         <v>14</v>
       </c>
       <c r="M162" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="N162">
         <v>21</v>
       </c>
       <c r="O162" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="P162">
         <v>30</v>
       </c>
       <c r="Q162" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="R162">
         <v>16</v>
       </c>
       <c r="S162" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="T162">
         <v>35</v>
       </c>
       <c r="U162" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="V162">
         <v>17</v>
       </c>
       <c r="W162" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="X162">
         <v>20</v>
       </c>
       <c r="Y162" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="Z162">
         <v>19</v>
       </c>
       <c r="AA162" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AB162">
         <v>40</v>
       </c>
       <c r="AC162" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AD162">
         <v>19</v>
       </c>
       <c r="AE162" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AF162">
         <v>19</v>
       </c>
       <c r="AG162" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AH162">
         <v>18</v>
       </c>
       <c r="AI162" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AJ162">
         <v>19</v>
       </c>
       <c r="AK162" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="AL162">
         <v>422</v>
@@ -14559,10 +14595,10 @@
         <v>422</v>
       </c>
       <c r="AO162" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="AP162" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
